--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GGJ2019-C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E491225-4E82-40FC-B142-18E43A54F1EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B5A214-56C3-49C5-A9D6-C00D47B8723E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
     <sheet name="キャラ" sheetId="2" r:id="rId2"/>
-    <sheet name="素材" sheetId="3" r:id="rId3"/>
+    <sheet name="敵" sheetId="4" r:id="rId3"/>
+    <sheet name="アクション" sheetId="6" r:id="rId4"/>
+    <sheet name="アクション (2)" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ゲームタイトル未定</t>
     <rPh sb="7" eb="9">
@@ -105,9 +107,109 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>種類</t>
+    <t>上司</t>
     <rPh sb="0" eb="2">
-      <t>シュルイ</t>
+      <t>ジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の場所を往復
+主人公を見つけたらタイムペナルティ
+再開はつかまった場所</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウフク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステルス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段ボール</t>
+    <rPh sb="0" eb="1">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅像</t>
+    <rPh sb="0" eb="2">
+      <t>ドウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠れる</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅像と同じポーズをする</t>
+    <rPh sb="0" eb="2">
+      <t>ドウゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掃除のおばさん</t>
+    <rPh sb="0" eb="2">
+      <t>ソウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定時間動けなくなる</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -116,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +258,46 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -188,30 +330,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,15 +456,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -258,7 +479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7267575" y="552450"/>
+          <a:off x="7191375" y="219075"/>
           <a:ext cx="7991475" cy="4057650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -267,366 +488,6 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACAEE80-1B0C-41CF-952F-763A72A8BA5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7800975" y="3286125"/>
-          <a:ext cx="485775" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>300675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>141285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>456847</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>166028</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB7CD1D-CCDA-4E00-B968-CDD10C3A020F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1129922">
-          <a:off x="7844475" y="3713160"/>
-          <a:ext cx="156172" cy="739118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>74564</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>453034</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73777A9-D527-4A79-A3B7-4A3611DF0ECE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="4195216">
-          <a:off x="7753106" y="3714165"/>
-          <a:ext cx="108986" cy="378470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>607965</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>77007</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>300635</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>185993</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B1457F-2DAA-41B5-95F6-2DCF2861C442}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="4195216">
-          <a:off x="7600707" y="4228515"/>
-          <a:ext cx="108986" cy="378470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>484141</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>176811</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90743</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1D6CE4-D21D-44E4-A0B0-DC2E3D644A5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="4195216">
-          <a:off x="8162683" y="3657015"/>
-          <a:ext cx="108986" cy="378470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>293642</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>77008</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>672112</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>185994</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94D6D6D-9EB6-43F6-B09D-806BB730D6F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5724564">
-          <a:off x="7972184" y="4228516"/>
-          <a:ext cx="108986" cy="378470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -957,137 +818,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1145,22 +1006,168 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDA4281-6C74-400D-9057-9A5E85B9C92A}">
-  <dimension ref="C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705C6AA-63C7-4865-ACC3-70B4EC5F1A05}">
+  <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="55.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+    <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323EA59-804C-4B23-904C-17107D19372D}">
+  <dimension ref="B1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="55.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
+  <dimension ref="B1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="55.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B5A214-56C3-49C5-A9D6-C00D47B8723E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7554EF7-83F8-4CDD-A29B-01EFB3351EC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
     <sheet name="キャラ" sheetId="2" r:id="rId2"/>
     <sheet name="敵" sheetId="4" r:id="rId3"/>
     <sheet name="アクション" sheetId="6" r:id="rId4"/>
-    <sheet name="アクション (2)" sheetId="8" r:id="rId5"/>
+    <sheet name="ギミック" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ゲームタイトル未定</t>
     <rPh sb="7" eb="9">
@@ -213,12 +213,104 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>穴</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイレン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足元のボタンを踏んだら上司が来る</t>
+    <rPh sb="0" eb="2">
+      <t>アシモト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゲ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たったらタイムペナルティ</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちたらタイムペナルティ</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネズミ捕り</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踏むと一定時間動けなくなる</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>油</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く速度が遅くなる</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バランスボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +384,14 @@
     </font>
     <font>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -382,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +533,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,6 +622,3927 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>110404</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2593F045-2D07-4A4A-BB39-8949DD1828FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200899" y="1295401"/>
+          <a:ext cx="7997105" cy="2996130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>86121</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146999</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8A7B24-709F-4A23-A16D-412CD70BF355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12430521" y="1361623"/>
+          <a:ext cx="751754" cy="1642876"/>
+          <a:chOff x="4151293" y="3928990"/>
+          <a:chExt cx="1079905" cy="2360027"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC365A26-7F53-489D-AE8D-09E92E15F9DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="478667">
+            <a:off x="4603135" y="4292085"/>
+            <a:ext cx="136930" cy="1407916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="29" name="グループ化 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982182E4-7743-4544-A78D-415C204BE98B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4733368" y="4513240"/>
+            <a:ext cx="497830" cy="513172"/>
+            <a:chOff x="4733368" y="4513240"/>
+            <a:chExt cx="497830" cy="513172"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="正方形/長方形 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4BCDE3-A3CC-4D1B-A8FB-1D85CA0550DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17181266">
+              <a:off x="4893622" y="4669281"/>
+              <a:ext cx="120964" cy="441471"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="正方形/長方形 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB41FD6-697D-4BE8-8447-4AE9CA5453C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="773411" flipH="1" flipV="1">
+              <a:off x="5134681" y="4513240"/>
+              <a:ext cx="96517" cy="513172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="楕円 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BD08A5-DB3F-4634-B33D-004477DF6867}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4428066" y="3928990"/>
+            <a:ext cx="720811" cy="720811"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="31" name="グループ化 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A865AEC-F0E2-421E-932E-CEBFC6267569}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4151293" y="4649801"/>
+            <a:ext cx="497830" cy="513172"/>
+            <a:chOff x="4733368" y="4513240"/>
+            <a:chExt cx="497830" cy="513172"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="正方形/長方形 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966365C8-9215-4047-BD59-DB10E330C864}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17181266">
+              <a:off x="4893622" y="4669281"/>
+              <a:ext cx="120964" cy="441471"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="正方形/長方形 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09A5EA3-0925-400F-8B9C-C01D0BFE976F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="773411" flipH="1" flipV="1">
+              <a:off x="5134681" y="4513240"/>
+              <a:ext cx="96517" cy="513172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC030AC0-A385-4223-B4AC-C6AA2C7F8805}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="7230299">
+            <a:off x="4781192" y="5492356"/>
+            <a:ext cx="133729" cy="614079"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D945A1-362D-4880-A303-230CBB6CE01D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="13363436" flipH="1" flipV="1">
+            <a:off x="4257824" y="5487189"/>
+            <a:ext cx="133945" cy="801828"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392263</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>118786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514554</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="二等辺三角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F41C9B0-D0FC-4F00-AE2F-83682314F8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13422463" y="2976286"/>
+          <a:ext cx="808091" cy="776374"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>554021</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676312</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="二等辺三角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C294F9-D809-4740-A239-3AD1148152D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12212621" y="2971636"/>
+          <a:ext cx="808091" cy="776374"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>512771</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>399501</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>225831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEF6A72-AB55-4432-B194-6A63997F29E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16971971" y="3508423"/>
+          <a:ext cx="1944130" cy="3146783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CCA1EB-E38C-447F-8E73-E37721864E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="1990725"/>
+          <a:ext cx="1009650" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="楕円 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8776033-4DF9-4669-A8B1-7512462167A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="2790825"/>
+          <a:ext cx="219075" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368428</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EA81BD-D99D-4853-8F50-403111D0E321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="2247900"/>
+          <a:ext cx="501778" cy="501775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>650442</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271963</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36C6BB9-F22A-4E96-829D-E0D8AE0B1076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20700286">
+          <a:off x="8194242" y="2877655"/>
+          <a:ext cx="307321" cy="84206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133973</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>277156</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180514</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0986DD-28DB-4557-AC8E-0757102E1CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9049373" y="1930928"/>
+          <a:ext cx="828983" cy="1821461"/>
+          <a:chOff x="4095073" y="3897267"/>
+          <a:chExt cx="1190856" cy="2616569"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4777A0F2-71BA-42D8-BAB6-8392364EF3DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4603135" y="4292085"/>
+            <a:ext cx="136931" cy="1407916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="グループ化 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1FB253-E4A4-455F-8451-2A6A69AD869D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4719575" y="4864820"/>
+            <a:ext cx="566354" cy="585761"/>
+            <a:chOff x="4719575" y="4864820"/>
+            <a:chExt cx="566354" cy="585761"/>
+          </a:xfrm>
+          <a:grpFill/>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="正方形/長方形 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3819459-66B0-4F5E-958E-350E79DF009B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17181266">
+              <a:off x="4879829" y="4704566"/>
+              <a:ext cx="120964" cy="441471"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="正方形/長方形 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD16F8A8-31DD-4086-B40D-231312969E73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="20251506" flipH="1" flipV="1">
+              <a:off x="5189412" y="4937409"/>
+              <a:ext cx="96517" cy="513172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="楕円 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF56BCB5-1142-4015-94D0-79807687E2BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4311194" y="3897267"/>
+            <a:ext cx="720811" cy="720811"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>上司</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="19" name="グループ化 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC32B826-09CF-4375-991A-142D4DEFCCAE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4122184" y="4850043"/>
+            <a:ext cx="481035" cy="554903"/>
+            <a:chOff x="4779272" y="4271267"/>
+            <a:chExt cx="481035" cy="554903"/>
+          </a:xfrm>
+          <a:grpFill/>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="正方形/長方形 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54ED30C1-813A-48EB-94E9-6BDE21B7CEEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5160906">
+              <a:off x="4939526" y="4544952"/>
+              <a:ext cx="120964" cy="441472"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="正方形/長方形 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D32C8FF-6FBC-4469-ABAC-FD4E0ED80306}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="11311154" flipH="1" flipV="1">
+              <a:off x="5164676" y="4271267"/>
+              <a:ext cx="95631" cy="513171"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856A348B-C8FF-4E81-A8DE-A029923E03AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="7230299">
+            <a:off x="4781192" y="5492356"/>
+            <a:ext cx="133729" cy="614079"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AE246E-2DB0-4402-A463-A6C95C81DC46}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="14369701" flipH="1">
+            <a:off x="4366583" y="5492357"/>
+            <a:ext cx="133729" cy="614078"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833800CD-243C-4FBA-B47F-16A2A1FCA8EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11326200" flipH="1">
+            <a:off x="4095073" y="5899757"/>
+            <a:ext cx="133729" cy="614079"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCD5D86-10AB-453E-977E-BC1AFB197B08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="9583520" flipH="1">
+            <a:off x="5118055" y="5897300"/>
+            <a:ext cx="133729" cy="614079"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1175F990-9567-4430-9034-46864E9C8EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19286976">
+          <a:off x="11201400" y="2743201"/>
+          <a:ext cx="933450" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE997DB-23A2-4AF9-89E3-A2BA2E7DD0B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19286976">
+          <a:off x="11306175" y="2905125"/>
+          <a:ext cx="933450" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E374676-2992-4364-8488-49E80A835116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19286976">
+          <a:off x="11420475" y="3057526"/>
+          <a:ext cx="933450" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="607346"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FAC93D-6C56-4295-84F4-DC549104BD5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="1514475"/>
+          <a:ext cx="492443" cy="607346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -818,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1009,8 +5036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705C6AA-63C7-4865-ACC3-70B4EC5F1A05}">
   <dimension ref="B1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1056,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323EA59-804C-4B23-904C-17107D19372D}">
   <dimension ref="B1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1114,58 +5141,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="3" max="3" width="55.75" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="88.625" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="95.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
-        <v>12</v>
+    <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
+        <v>22</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
-        <v>13</v>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>17</v>
+      <c r="D2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>15</v>
+    <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C3:C5"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7554EF7-83F8-4CDD-A29B-01EFB3351EC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268299AA-DBB7-4DEF-9425-8A60A055D9A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="1" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
-    <sheet name="キャラ" sheetId="2" r:id="rId2"/>
-    <sheet name="敵" sheetId="4" r:id="rId3"/>
-    <sheet name="アクション" sheetId="6" r:id="rId4"/>
-    <sheet name="ギミック" sheetId="8" r:id="rId5"/>
+    <sheet name="ゲーム画面イメージ" sheetId="9" r:id="rId2"/>
+    <sheet name="キャラ" sheetId="2" r:id="rId3"/>
+    <sheet name="敵" sheetId="4" r:id="rId4"/>
+    <sheet name="アクション" sheetId="6" r:id="rId5"/>
+    <sheet name="ギミック" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>ゲームタイトル未定</t>
-    <rPh sb="7" eb="9">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -225,30 +219,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>足元のボタンを踏んだら上司が来る</t>
-    <rPh sb="0" eb="2">
-      <t>アシモト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウシ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トゲ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たったらタイムペナルティ</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -289,20 +260,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>歩く速度が遅くなる</t>
+    <t>バランスボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たったら一定時間動けなくなる</t>
     <rPh sb="0" eb="1">
-      <t>アル</t>
+      <t>ア</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
+    <rPh sb="5" eb="7">
+      <t>イッテイ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>オソ</t>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バランスボール</t>
+    <t>すべって動きづらい</t>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私、家に帰ります。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足元のボタンを踏んだら上司が高速で突っ込んでくる</t>
+    <rPh sb="0" eb="2">
+      <t>アシモト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,12 +415,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3E7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -482,30 +510,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -525,6 +532,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -534,10 +565,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,6 +589,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA3E7FF"/>
+      <color rgb="FFFFAFAF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4543,6 +4592,1986 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="693138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A687E7-09A7-49C3-B8BA-8940500830A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="152400"/>
+          <a:ext cx="1620957" cy="693138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8124D9D-913D-4C2B-950F-B7A9F033A0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="561975"/>
+          <a:ext cx="5514975" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2302105" cy="778996"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E38451D-B708-4D8B-8630-08A955B1E187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="466725"/>
+          <a:ext cx="2302105" cy="778996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>PM5:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B81F12-6472-497D-8871-05BF0FC66F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="3467100"/>
+          <a:ext cx="5514975" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>469271</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>837478</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>233176</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D70AE88-CC8C-4BE0-AE34-4D13B93BDC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1526546" y="2600325"/>
+          <a:ext cx="368207" cy="804676"/>
+          <a:chOff x="4151293" y="3928990"/>
+          <a:chExt cx="1079905" cy="2360027"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67464B93-7C87-4E10-9212-25E236B88C17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="478667">
+            <a:off x="4603135" y="4292085"/>
+            <a:ext cx="136930" cy="1407916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="グループ化 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182DFCD8-7043-4D2C-9872-FF3C3B927EC9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4733368" y="4513240"/>
+            <a:ext cx="497830" cy="513172"/>
+            <a:chOff x="4733368" y="4513240"/>
+            <a:chExt cx="497830" cy="513172"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="正方形/長方形 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520F01D9-C321-4F8C-9A3E-CC2D094A0889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17181266">
+              <a:off x="4893622" y="4669281"/>
+              <a:ext cx="120964" cy="441471"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="正方形/長方形 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDD491B-E7F5-4EEB-8094-F86D898B912C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="773411" flipH="1" flipV="1">
+              <a:off x="5134681" y="4513240"/>
+              <a:ext cx="96517" cy="513172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="楕円 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2469FADE-F042-40AF-A31B-7B3A12A7CBEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4428066" y="3928990"/>
+            <a:ext cx="720811" cy="720811"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A034655F-6D46-435B-9DD6-AA2CAFC97758}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4151293" y="4649801"/>
+            <a:ext cx="497830" cy="513172"/>
+            <a:chOff x="4733368" y="4513240"/>
+            <a:chExt cx="497830" cy="513172"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="正方形/長方形 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BCC074-6E7B-4AC9-9EAF-059899F906C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17181266">
+              <a:off x="4893622" y="4669281"/>
+              <a:ext cx="120964" cy="441471"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="正方形/長方形 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029C28FB-E7C1-4EDE-8FE4-638E83C51D18}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="773411" flipH="1" flipV="1">
+              <a:off x="5134681" y="4513240"/>
+              <a:ext cx="96517" cy="513172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8687AA-A554-45BA-9856-FFC7456C29DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="7230299">
+            <a:off x="4781192" y="5492356"/>
+            <a:ext cx="133729" cy="614079"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AA8703-12E3-48E3-9E86-C210951EF4BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="13363436" flipH="1" flipV="1">
+            <a:off x="4257824" y="5487189"/>
+            <a:ext cx="133945" cy="801828"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4590ED6B-90EF-4F4C-A556-FC98D9D82710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="561975"/>
+          <a:ext cx="5514975" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4390946" cy="1637243"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047C3948-9D2F-4A7C-B017-0E9B60D79BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="885825"/>
+          <a:ext cx="4390946" cy="1637243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+            <a:t>私</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>、家に帰ります。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="693138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838823EE-933D-4E74-8658-238722A4C621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="2447925"/>
+          <a:ext cx="1620957" cy="693138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>スタート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4253A412-A06D-4D4C-91D1-CD3C7CF63C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="4391025"/>
+          <a:ext cx="5514975" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>942975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1980029" cy="693138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E948B74-4A95-4852-A8C9-75D3241C78BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="3057525"/>
+          <a:ext cx="1980029" cy="693138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>あそびかた</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="爆発: 8 pt 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BC0250-4271-4EBA-8C50-D32BD94985B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="4562475"/>
+          <a:ext cx="4095750" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3416320" cy="693138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BAA191-976A-417A-88AC-639B25A6CF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="4819650"/>
+          <a:ext cx="3416320" cy="693138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>上司に見つかるな！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1415772" cy="778996"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344BCD4E-6003-47A1-B953-177533CE56DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4371975"/>
+          <a:ext cx="1415772" cy="778996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>遊び方</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4108817" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CEB752-6D91-4982-BD08-DDA5865D5860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="7391400"/>
+          <a:ext cx="4108817" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>〇ボタンで段ボール、扉に隠れろ！！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4845,137 +6874,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4997,6 +7026,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A8AC71-17B3-4237-855F-AE4C4B7B58A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="83.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144D0728-2604-449C-B9AA-CAD4FA7DB789}">
   <dimension ref="B3:B14"/>
   <sheetViews>
@@ -5012,7 +7057,7 @@
   <sheetData>
     <row r="3" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5032,12 +7077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705C6AA-63C7-4865-ACC3-70B4EC5F1A05}">
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5048,25 +7093,25 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
-        <v>11</v>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5079,7 +7124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323EA59-804C-4B23-904C-17107D19372D}">
   <dimension ref="B1:C6"/>
   <sheetViews>
@@ -5095,37 +7140,37 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>17</v>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C5" s="17"/>
     </row>
-    <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5139,7 +7184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
   <dimension ref="B1:E5"/>
   <sheetViews>
@@ -5158,45 +7203,50 @@
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>22</v>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268299AA-DBB7-4DEF-9425-8A60A055D9A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170AA3E1-375A-4773-A9B6-5DCEA35F7DF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="1" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -195,19 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一定時間動けなくなる</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>穴</t>
     <rPh sb="0" eb="1">
       <t>アナ</t>
@@ -223,13 +210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>落ちたらタイムペナルティ</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ネズミ捕り</t>
     <rPh sb="3" eb="4">
       <t>ト</t>
@@ -280,13 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すべって動きづらい</t>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>私、家に帰ります。</t>
     <rPh sb="0" eb="1">
       <t>ワタシ</t>
@@ -318,6 +291,316 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走り</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早く移動
+上司に見つかりやすくなる</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆっくり移動
+上司に見つかりにくい</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直線に移動
+戻ってはこない</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跳ねて妨害</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらに向かって突っ込んでくる</t>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長の倍ぐらいの高さまで
+飛び上がる</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミックを避けつつ、上司をうまく避けるところ</t>
+    <rPh sb="5" eb="6">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンセプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社畜はどうしても帰りたい</t>
+    <rPh sb="0" eb="2">
+      <t>シャチク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装の簡単なものから</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電線</t>
+    <rPh sb="0" eb="2">
+      <t>デンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上から釣り下がっている
+当たると一定時間動けなくなる</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちるとタイムペナルティ</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踏むとすべって動きづらい</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上から掴もうとしてくる
+掴まると一定時間動けなくなる</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャラい後輩</t>
+    <rPh sb="4" eb="6">
+      <t>コウハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無能なCEO</t>
+    <rPh sb="0" eb="2">
+      <t>ムノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金が好きな社長</t>
+    <rPh sb="0" eb="1">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラッシャー上司</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュガー社員</t>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の場所を往復
+一定時間動けなくなる</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウフク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣く</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -326,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +694,38 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -510,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,7 +883,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -583,6 +898,42 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -591,8 +942,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFAFAF"/>
       <color rgb="FFA3E7FF"/>
-      <color rgb="FFFFAFAF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4599,7 +4950,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1620957" cy="693138"/>
+    <xdr:ext cx="2698175" cy="693138"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -4614,7 +4965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7229475" y="152400"/>
-          <a:ext cx="1620957" cy="693138"/>
+          <a:ext cx="2698175" cy="693138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4643,7 +4994,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>イメージ</a:t>
+            <a:t>ゲームイメージ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4725,7 +5076,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2302105" cy="778996"/>
+    <xdr:ext cx="1481368" cy="1279966"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -4740,7 +5091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="581025" y="466725"/>
-          <a:ext cx="2302105" cy="778996"/>
+          <a:ext cx="1481368" cy="1279966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4771,6 +5122,9 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
             <a:t>時間</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
             <a:t>PM5:00</a:t>
@@ -6572,6 +6926,141 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADF0896-32AB-409B-9D3D-E55A884AEF9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="2076450"/>
+          <a:ext cx="885825" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0831D13A-DD41-4844-8013-B61296F7ED46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="2714625"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6872,17 +7361,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -6989,7 +7478,9 @@
         <v>6</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -7006,8 +7497,34 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="D11:I12"/>
     <mergeCell ref="B2:I4"/>
@@ -7030,7 +7547,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="83.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7079,10 +7596,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705C6AA-63C7-4865-ACC3-70B4EC5F1A05}">
-  <dimension ref="B1:C4"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7110,8 +7627,33 @@
       <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+      <c r="C4" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7126,57 +7668,87 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323EA59-804C-4B23-904C-17107D19372D}">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="3" max="3" width="55.75" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="14"/>
+      <c r="E2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="16"/>
+      <c r="E4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="17"/>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7186,10 +7758,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7198,57 +7770,91 @@
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="88.625" customWidth="1"/>
     <col min="4" max="4" width="30.75" customWidth="1"/>
-    <col min="5" max="5" width="95.125" customWidth="1"/>
+    <col min="5" max="5" width="100.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
-        <v>22</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="29" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
-        <v>20</v>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
+      <c r="C5" s="33" t="s">
+        <v>23</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170AA3E1-375A-4773-A9B6-5DCEA35F7DF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE8DCE-C357-4714-9B40-86703340C2AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="1" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -7546,7 +7546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A8AC71-17B3-4237-855F-AE4C4B7B58A0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -7670,8 +7670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323EA59-804C-4B23-904C-17107D19372D}">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE8DCE-C357-4714-9B40-86703340C2AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA127718-6EEF-4D7A-AD2B-BF9A56FA6DCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
     <sheet name="ゲーム画面イメージ" sheetId="9" r:id="rId2"/>
-    <sheet name="キャラ" sheetId="2" r:id="rId3"/>
-    <sheet name="敵" sheetId="4" r:id="rId4"/>
-    <sheet name="アクション" sheetId="6" r:id="rId5"/>
-    <sheet name="ギミック" sheetId="8" r:id="rId6"/>
+    <sheet name="敵" sheetId="4" r:id="rId3"/>
+    <sheet name="アクション" sheetId="6" r:id="rId4"/>
+    <sheet name="ギミック" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -94,43 +93,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主人公</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上司</t>
     <rPh sb="0" eb="2">
       <t>ジョウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一定の場所を往復
-主人公を見つけたらタイムペナルティ
-再開はつかまった場所</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウフク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サイカイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -269,28 +234,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>足元のボタンを踏んだら上司が高速で突っ込んでくる</t>
-    <rPh sb="0" eb="2">
-      <t>アシモト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウシ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -601,6 +544,79 @@
     <t>泣く</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー条件</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電(PM12:00)を過ぎる</t>
+    <rPh sb="0" eb="2">
+      <t>シュウデン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の場所を往復
+主人公を見つけたらタイムペナルティ
+(30分)
+再開はつかまった場所</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウフク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足元のボタンを踏んだら上司が高速で突っ込んでくる(30分)</t>
+    <rPh sb="0" eb="2">
+      <t>アシモト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>プン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -730,7 +746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +762,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA3E7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,49 +863,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -910,14 +896,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -928,10 +908,55 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5076,7 +5101,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1481368" cy="1279966"/>
+    <xdr:ext cx="1826141" cy="1465658"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -5091,7 +5116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="581025" y="466725"/>
-          <a:ext cx="1481368" cy="1279966"/>
+          <a:ext cx="1826141" cy="1465658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5120,14 +5145,18 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
-            <a:t>時間</a:t>
+            <a:t>終電まで</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>あと</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
-            <a:t>PM5:00</a:t>
+            <a:t>7:00</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
         </a:p>
@@ -7361,168 +7390,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>27</v>
+      <c r="B2" s="24" t="s">
+        <v>25</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>38</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
-        <v>42</v>
+      <c r="B13" s="21" t="s">
+        <v>39</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>40</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:I16"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>
@@ -7547,7 +7602,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="83.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7559,47 +7614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144D0728-2604-449C-B9AA-CAD4FA7DB789}">
-  <dimension ref="B3:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:2" ht="248.25" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705C6AA-63C7-4865-ACC3-70B4EC5F1A05}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7610,50 +7629,50 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
-        <v>10</v>
+      <c r="B2" s="26" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
-        <v>8</v>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
-        <v>18</v>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>56</v>
+      <c r="C4" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="26" t="s">
+    <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7666,11 +7685,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323EA59-804C-4B23-904C-17107D19372D}">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -7683,65 +7702,65 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
-        <v>11</v>
+      <c r="B2" s="26" t="s">
+        <v>9</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="E2" s="30" t="s">
-        <v>29</v>
+      <c r="C2" s="27"/>
+      <c r="E2" s="31" t="s">
+        <v>26</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
-        <v>12</v>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>16</v>
+      <c r="C3" s="28" t="s">
+        <v>14</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
-        <v>13</v>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="E4" s="18" t="s">
-        <v>31</v>
+      <c r="C4" s="29"/>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>32</v>
+      <c r="F4" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
-        <v>14</v>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="30"/>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>40</v>
+      <c r="F5" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>58</v>
+      <c r="F6" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7756,12 +7775,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7774,81 +7793,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="13" t="s">
-        <v>44</v>
+      <c r="B1" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
-        <v>20</v>
+      <c r="B2" s="18" t="s">
+        <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>24</v>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>48</v>
+      <c r="E2" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
-        <v>21</v>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>37</v>
+      <c r="E3" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
-        <v>19</v>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
-        <v>45</v>
+      <c r="B6" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>50</v>
+      <c r="E6" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA127718-6EEF-4D7A-AD2B-BF9A56FA6DCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1001751A-A896-44FE-A490-C7CC3D722680}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -620,12 +620,48 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(5時～12時の間の6時間)</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1分１秒として換算して６分以内に
+クリアできなかったらゲームオーバー</t>
+    <rPh sb="1" eb="2">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +781,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -772,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -841,13 +893,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,6 +1081,72 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7390,10 +7579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7543,41 +7732,87 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="58"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="58"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="58"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B15:C16"/>
+  <mergeCells count="15">
     <mergeCell ref="D15:I16"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="B15:C20"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1001751A-A896-44FE-A490-C7CC3D722680}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B32EE-290D-412B-8FA4-2AA17FB80A46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
@@ -41,13 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>脱出アクション</t>
-    <rPh sb="0" eb="2">
-      <t>ダッシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイ人数</t>
     <rPh sb="3" eb="5">
       <t>ニンズウ</t>
@@ -653,6 +646,13 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステルス脱出ゲーム</t>
+    <rPh sb="4" eb="6">
+      <t>ダッシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -798,24 +798,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFAFAF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA3E7FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -970,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,18 +981,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1067,19 +1043,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1147,6 +1123,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7581,231 +7560,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
-        <v>25</v>
+      <c r="B2" s="20" t="s">
+        <v>24</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="52"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="58"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="53" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="54"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="58"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="54"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="58"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="56"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -7853,7 +7830,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7864,50 +7841,50 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
-        <v>8</v>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
-        <v>7</v>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
-        <v>16</v>
+      <c r="B4" s="55" t="s">
+        <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>53</v>
+      <c r="C4" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+    <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
+    <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -7925,7 +7902,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7937,65 +7914,65 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="E2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="E2" s="31" t="s">
+      <c r="C3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>30</v>
+      <c r="F3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
-        <v>11</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="25"/>
       <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="11" t="s">
-        <v>12</v>
+      <c r="B5" s="28" t="s">
+        <v>11</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="26"/>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>37</v>
+      <c r="F5" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
-        <v>13</v>
+      <c r="B6" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8014,7 +7991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8028,81 +8005,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="s">
-        <v>41</v>
+      <c r="B1" s="22" t="s">
+        <v>40</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>18</v>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>34</v>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>43</v>
+      <c r="D6" s="30" t="s">
+        <v>45</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="31" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B32EE-290D-412B-8FA4-2AA17FB80A46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C89EE9B-F906-4575-AE7D-95C0B4C7B524}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -1010,7 +1010,91 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1042,90 +1126,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5194,6 +5194,632 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE90C645-B9AA-4B92-BDD4-169EDA271611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="5334000"/>
+          <a:ext cx="6238875" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242385</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB97798-ACF2-4FE7-AECB-B414434576C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1095375" y="5429250"/>
+          <a:ext cx="2576010" cy="1685925"/>
+          <a:chOff x="809625" y="6057900"/>
+          <a:chExt cx="2343150" cy="1533525"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F244072-4579-4145-B4B6-800790DD1A9A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1619250" y="6057900"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>W</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F182BFB3-4C50-4623-817D-630ED24EB83B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1619250" y="6858000"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>S</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00A2AA6-7F81-4DAE-B6AB-CE612A876EA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2419350" y="6858000"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>D</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E6BC4E-2C94-44F8-A58D-A3B9B14C058E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="809625" y="6858000"/>
+            <a:ext cx="733425" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1723549" cy="1379801"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5DD348-0BF8-4102-96AA-41C9E98FB4A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="5715000"/>
+          <a:ext cx="1723549" cy="1379801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000"/>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A07882A-F8F3-42E1-A404-DEBCC06491AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1657350" y="7305675"/>
+          <a:ext cx="1454899" cy="1514475"/>
+          <a:chOff x="1390650" y="7277100"/>
+          <a:chExt cx="1756859" cy="1828800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="正方形/長方形 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC993142-ED0B-4B20-BFB8-95CF22A534C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1676400" y="7391400"/>
+            <a:ext cx="1471109" cy="1714500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04266683-AED0-4385-8A42-0AC654A74169}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1390650" y="7277100"/>
+            <a:ext cx="1756859" cy="828674"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Enter</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2646878" cy="1122423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C680073-5533-4195-881F-25AC9E328D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="7324725"/>
+          <a:ext cx="2646878" cy="1122423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
+            <a:t>ジャンプ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7560,238 +8186,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="48"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="54"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="49" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="50"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="54"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="50"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="54"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="51" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="52"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="D19:I20"/>
-    <mergeCell ref="B15:C20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="D11:I12"/>
     <mergeCell ref="B2:I4"/>
@@ -7801,6 +8423,12 @@
     <mergeCell ref="D7:I8"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:I10"/>
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="B15:C20"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7841,10 +8469,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
@@ -7855,7 +8483,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -7914,20 +8542,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="27" t="s">
+      <c r="C2" s="51"/>
+      <c r="E2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -7941,7 +8569,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="53"/>
       <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
@@ -7950,10 +8578,10 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="54"/>
       <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
@@ -7962,7 +8590,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -8005,12 +8633,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="14" t="s">
@@ -8047,10 +8675,10 @@
       <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8069,16 +8697,16 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="20" t="s">
         <v>46</v>
       </c>
     </row>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C89EE9B-F906-4575-AE7D-95C0B4C7B524}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CC0F5-6734-4354-9DA2-DD3FAD9AD1D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
@@ -369,16 +369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社畜はどうしても帰りたい</t>
-    <rPh sb="0" eb="2">
-      <t>シャチク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装の簡単なものから</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
@@ -653,6 +643,22 @@
     <t>ステルス脱出ゲーム</t>
     <rPh sb="4" eb="6">
       <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上司を避けつつ会社を出る</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8187,7 +8193,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8230,7 +8236,7 @@
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -8326,7 +8332,7 @@
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
@@ -8346,11 +8352,11 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -8372,7 +8378,7 @@
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -8394,7 +8400,7 @@
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
       <c r="D19" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -8479,7 +8485,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8487,32 +8493,32 @@
         <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8597,10 +8603,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8634,7 +8640,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -8645,13 +8651,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8673,7 +8679,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>31</v>
@@ -8698,16 +8704,16 @@
     </row>
     <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CC0F5-6734-4354-9DA2-DD3FAD9AD1D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D4AC2B-5647-4DDE-A5F4-13BDCAD79403}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -1034,6 +1034,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,22 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5613,159 +5613,82 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>369049</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A07882A-F8F3-42E1-A404-DEBCC06491AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04266683-AED0-4385-8A42-0AC654A74169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="7305675"/>
-          <a:ext cx="1454899" cy="1514475"/>
-          <a:chOff x="1390650" y="7277100"/>
-          <a:chExt cx="1756859" cy="1828800"/>
+          <a:off x="1323975" y="7610478"/>
+          <a:ext cx="2276475" cy="647697"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="正方形/長方形 54">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC993142-ED0B-4B20-BFB8-95CF22A534C1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1676400" y="7391400"/>
-            <a:ext cx="1471109" cy="1714500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="正方形/長方形 52">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04266683-AED0-4385-8A42-0AC654A74169}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1390650" y="7277100"/>
-            <a:ext cx="1756859" cy="828674"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
+            </a:rPr>
+            <a:t>Space</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Enter</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
@@ -8192,234 +8115,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="29" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="32" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="B15:C20"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="D11:I12"/>
     <mergeCell ref="B2:I4"/>
@@ -8429,12 +8358,6 @@
     <mergeCell ref="D7:I8"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:I10"/>
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="D19:I20"/>
-    <mergeCell ref="B15:C20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8625,8 +8548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D4AC2B-5647-4DDE-A5F4-13BDCAD79403}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA5190C-FE2F-4DA2-8262-47CE78AC4DA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バランスボール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>当たったら一定時間動けなくなる</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
@@ -579,31 +575,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>足元のボタンを踏んだら上司が高速で突っ込んでくる(30分)</t>
-    <rPh sb="0" eb="2">
-      <t>アシモト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウシ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>プン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(5時～12時の間の6時間)</t>
     <rPh sb="2" eb="3">
       <t>ジ</t>
@@ -659,6 +630,26 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足元のボタンを踏んだら上司が増える</t>
+    <rPh sb="0" eb="2">
+      <t>アシモト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -964,14 +955,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -8115,231 +8103,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
-        <v>24</v>
+      <c r="B2" s="24" t="s">
+        <v>23</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
-        <v>60</v>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>58</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="27" t="s">
-        <v>38</v>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26" t="s">
+        <v>59</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="34" t="s">
-        <v>58</v>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="33" t="s">
+        <v>56</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="37" t="s">
-        <v>59</v>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="36" t="s">
+        <v>57</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8398,50 +8386,50 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>51</v>
+      <c r="C4" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
+    <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8471,65 +8459,65 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="E2" s="55" t="s">
+      <c r="C2" s="50"/>
+      <c r="E2" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="54"/>
+    </row>
+    <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="55"/>
-    </row>
-    <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>29</v>
+      <c r="F3" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="52"/>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
+      <c r="C5" s="53"/>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>36</v>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8549,7 +8537,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8562,81 +8550,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="50" t="s">
-        <v>39</v>
+      <c r="B1" s="49" t="s">
+        <v>38</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>57</v>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>43</v>
+      <c r="E2" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>41</v>
+      <c r="D6" s="18" t="s">
+        <v>43</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA5190C-FE2F-4DA2-8262-47CE78AC4DA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EABB45-D0EC-476D-BF80-A966BCB0FF58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>油</t>
-    <rPh sb="0" eb="1">
-      <t>アブラ</t>
-    </rPh>
+    <t>バランスボール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -634,23 +631,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボール</t>
+    <t>足元のボタンを踏んだら上司が増える</t>
+    <rPh sb="0" eb="2">
+      <t>アシモト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>足元のボタンを踏んだら上司が増える</t>
-    <rPh sb="0" eb="2">
-      <t>アシモト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウシ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
+    <t>オイル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -955,11 +952,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -8103,231 +8103,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="33" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8386,49 +8386,49 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8447,7 +8447,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8459,64 +8459,64 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="E2" s="54" t="s">
+      <c r="C2" s="51"/>
+      <c r="E2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="53"/>
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="54"/>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8536,8 +8536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8550,80 +8550,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>44</v>
       </c>
     </row>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EABB45-D0EC-476D-BF80-A966BCB0FF58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A59AD2-4DD1-4402-9B62-28873E6BBAB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -650,12 +650,16 @@
     <t>オイル</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ワープパネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +789,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -952,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1132,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5193,13 +5208,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5214,8 +5229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="885825" y="5334000"/>
-          <a:ext cx="6238875" cy="3543300"/>
+          <a:off x="885825" y="5333999"/>
+          <a:ext cx="6238875" cy="3314701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5544,9 +5559,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1723549" cy="1379801"/>
     <xdr:sp macro="" textlink="">
@@ -5562,7 +5577,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="5715000"/>
+          <a:off x="4371975" y="6153150"/>
           <a:ext cx="1723549" cy="1379801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8103,8 +8118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8534,10 +8549,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8627,6 +8642,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="7" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A59AD2-4DD1-4402-9B62-28873E6BBAB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E01D7A9-BA49-411F-A0AC-868653119649}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="20850" windowHeight="8280" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="6720" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="1" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -652,6 +652,19 @@
   </si>
   <si>
     <t>ワープパネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踏むと別の場所にワープする</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -964,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,21 +1047,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,7 +1110,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1133,7 +1146,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7816,6 +7835,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4698722" cy="1980670"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E13E7B5-6316-4FB9-8049-6402F431DEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="5676900"/>
+          <a:ext cx="4698722" cy="1980670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800"/>
+            <a:t>いらない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8118,240 +8195,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074C7D37-5A51-4FE5-B300-F9479CCCFA15}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="34" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="D19:I20"/>
-    <mergeCell ref="B15:C20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="D11:I12"/>
     <mergeCell ref="B2:I4"/>
@@ -8361,6 +8432,12 @@
     <mergeCell ref="D7:I8"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:I10"/>
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="B15:C20"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8373,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A8AC71-17B3-4237-855F-AE4C4B7B58A0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="83.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8551,8 +8628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8646,6 +8723,11 @@
       <c r="B7" s="56" t="s">
         <v>62</v>
       </c>
+      <c r="C7" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E01D7A9-BA49-411F-A0AC-868653119649}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDB76C-080B-4EA1-BB94-B34A68C2A023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="1" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="7680" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="1" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -1047,6 +1047,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,22 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1145,15 +1154,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7713,126 +7713,131 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADF0896-32AB-409B-9D3D-E55A884AEF9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3A309B-7461-4AB1-95A4-3F370AABC91D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4562475" y="2076450"/>
           <a:ext cx="885825" cy="1381125"/>
+          <a:chOff x="4562475" y="2076450"/>
+          <a:chExt cx="885825" cy="1381125"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="楕円 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0831D13A-DD41-4844-8013-B61296F7ED46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5114925" y="2714625"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADF0896-32AB-409B-9D3D-E55A884AEF9B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4562475" y="2076450"/>
+            <a:ext cx="885825" cy="1381125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="楕円 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0831D13A-DD41-4844-8013-B61296F7ED46}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5114925" y="2714625"/>
+            <a:ext cx="228600" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
@@ -7893,6 +7898,1660 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F25A5E3-F522-44CB-B139-29A3659B177E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="4486275"/>
+          <a:ext cx="5514975" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A0D000-8FE8-4587-901E-52C2B80B6F18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="7372350"/>
+          <a:ext cx="5514975" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1021721</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332653</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>966601</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1089CD-DE0F-4CA8-9E05-C68D73887A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9479921" y="6505575"/>
+          <a:ext cx="368207" cy="804676"/>
+          <a:chOff x="4151293" y="3928990"/>
+          <a:chExt cx="1079905" cy="2360027"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3CBF93-9272-49C6-997B-DE386BF94C93}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="478667">
+            <a:off x="4603135" y="4292085"/>
+            <a:ext cx="136930" cy="1407916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="32" name="グループ化 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A45B75-C36C-4539-B672-2E93F9B56BE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4733368" y="4513240"/>
+            <a:ext cx="497830" cy="513172"/>
+            <a:chOff x="4733368" y="4513240"/>
+            <a:chExt cx="497830" cy="513172"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="正方形/長方形 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDF98FE-8AB0-4E12-BF0D-9DF770613035}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17181266">
+              <a:off x="4893622" y="4669281"/>
+              <a:ext cx="120964" cy="441471"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="正方形/長方形 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF8D4E5-719A-4758-BB71-30E734C8D45A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="773411" flipH="1" flipV="1">
+              <a:off x="5134681" y="4513240"/>
+              <a:ext cx="96517" cy="513172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="楕円 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79306082-2085-4419-AEAE-422C0F96256F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4428066" y="3928990"/>
+            <a:ext cx="720811" cy="720811"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="グループ化 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358112E7-E64B-4C30-886E-2D55993E0368}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4151293" y="4649801"/>
+            <a:ext cx="497830" cy="513172"/>
+            <a:chOff x="4733368" y="4513240"/>
+            <a:chExt cx="497830" cy="513172"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="正方形/長方形 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7832572-A819-4972-8BCA-7F50340759E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17181266">
+              <a:off x="4893622" y="4669281"/>
+              <a:ext cx="120964" cy="441471"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="正方形/長方形 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA306357-A61D-4E8F-B56F-F583AEF9D1E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="773411" flipH="1" flipV="1">
+              <a:off x="5134681" y="4513240"/>
+              <a:ext cx="96517" cy="513172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C2C493-996E-4793-AF69-CD09E479A9C8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="7230299">
+            <a:off x="4781192" y="5492356"/>
+            <a:ext cx="133729" cy="614079"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFC3C2C-DE29-4ADD-BACC-8AE6D2A27B39}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="13363436" flipH="1" flipV="1">
+            <a:off x="4257824" y="5487189"/>
+            <a:ext cx="133945" cy="801828"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="グループ化 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD8C773-5812-48BE-A14B-60BF987498E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12401550" y="5991225"/>
+          <a:ext cx="885825" cy="1381125"/>
+          <a:chOff x="4562475" y="2076450"/>
+          <a:chExt cx="885825" cy="1381125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD440EF0-FBC8-4C66-8FB5-F5AD68ABDED5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4562475" y="2076450"/>
+            <a:ext cx="885825" cy="1381125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="楕円 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9621B038-9347-4555-8532-67AA5C626C2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5114925" y="2714625"/>
+            <a:ext cx="228600" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D68B37-BDAD-4E1A-96C7-8749A57A27B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12601575" y="5248275"/>
+          <a:ext cx="542925" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>W</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形: 角を丸くする 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEEFF78-A5FD-4643-96A5-A5F45492E5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10563225" y="6153150"/>
+          <a:ext cx="1143000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Space</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="二等辺三角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29288789-6CF0-45F3-897F-7A357CD55608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="6791325"/>
+          <a:ext cx="581025" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8202,227 +9861,233 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="29" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="32" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="B15:C20"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="D11:I12"/>
     <mergeCell ref="B2:I4"/>
@@ -8432,12 +10097,6 @@
     <mergeCell ref="D7:I8"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:I10"/>
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="D19:I20"/>
-    <mergeCell ref="B15:C20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8450,8 +10109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A8AC71-17B3-4237-855F-AE4C4B7B58A0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="83.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8478,10 +10137,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
@@ -8551,20 +10210,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="E2" s="55" t="s">
+      <c r="C2" s="54"/>
+      <c r="E2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -8578,7 +10237,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="56"/>
       <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
@@ -8590,7 +10249,7 @@
       <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="57"/>
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
@@ -8642,12 +10301,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="14" t="s">
@@ -8720,14 +10379,14 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDB76C-080B-4EA1-BB94-B34A68C2A023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C67C0-71D5-4A45-BA8B-230AE00C2071}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="1" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView minimized="1" xWindow="7680" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -412,16 +412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>踏むとすべって動きづらい</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -445,47 +435,6 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャラい後輩</t>
-    <rPh sb="4" eb="6">
-      <t>コウハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無能なCEO</t>
-    <rPh sb="0" eb="2">
-      <t>ムノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金が好きな社長</t>
-    <rPh sb="0" eb="1">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラッシャー上司</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シュガー社員</t>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,12 +616,79 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>踏むとすべる</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紐の先に鉄球が
+ついてるやつ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中心を軸にして回っている
+当たると当たった方向とは逆に吹き飛ばされる</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗ると跳ねる</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +826,22 @@
     </font>
     <font>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1002,15 +1034,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1154,6 +1177,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7404,10 +7436,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1980029" cy="693138"/>
     <xdr:sp macro="" textlink="">
@@ -7423,7 +7455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039350" y="3057525"/>
+          <a:off x="2762250" y="5019675"/>
           <a:ext cx="1980029" cy="693138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9555,6 +9587,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1119187</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>702468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6012656</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2624FDE9-CA48-4EB4-B2AA-A4E776791F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1357312" y="14918531"/>
+          <a:ext cx="7381875" cy="3417094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -9861,224 +9958,224 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="s">
-        <v>58</v>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>52</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>59</v>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>53</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="46" t="s">
-        <v>53</v>
+      <c r="B15" s="43" t="s">
+        <v>47</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="31" t="s">
-        <v>54</v>
+      <c r="C15" s="44"/>
+      <c r="D15" s="28" t="s">
+        <v>48</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="37" t="s">
-        <v>56</v>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="34" t="s">
+        <v>50</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="40" t="s">
-        <v>57</v>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="37" t="s">
+        <v>51</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10109,8 +10206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A8AC71-17B3-4237-855F-AE4C4B7B58A0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="83.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10123,10 +10220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705C6AA-63C7-4865-ACC3-70B4EC5F1A05}">
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10137,50 +10234,25 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
-        <v>49</v>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -10210,26 +10282,26 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="51"/>
+      <c r="E2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10237,38 +10309,38 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="53"/>
       <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="54"/>
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>52</v>
+      <c r="F6" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -10285,10 +10357,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10301,25 +10373,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10332,7 +10404,7 @@
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10343,10 +10415,10 @@
       <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10354,7 +10426,7 @@
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -10365,28 +10437,42 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10395,5 +10481,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C67C0-71D5-4A45-BA8B-230AE00C2071}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A4EBF-E2BE-433B-AC0E-BFF8899AAB90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7680" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="8640" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -1079,20 +1079,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,7 +1151,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,15 +1186,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9587,71 +9587,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1119187</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>702468</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6012656</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2624FDE9-CA48-4EB4-B2AA-A4E776791F57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1357312" y="14918531"/>
-          <a:ext cx="7381875" cy="3417094"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -9952,239 +9887,233 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="34" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="D19:I20"/>
-    <mergeCell ref="B15:C20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="D11:I12"/>
     <mergeCell ref="B2:I4"/>
@@ -10194,6 +10123,12 @@
     <mergeCell ref="D7:I8"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:I10"/>
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="B15:C20"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10207,7 +10142,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="83.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10234,10 +10169,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
@@ -10282,20 +10217,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="E2" s="55" t="s">
+      <c r="C2" s="54"/>
+      <c r="E2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -10309,7 +10244,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="56"/>
       <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
@@ -10321,7 +10256,7 @@
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="57"/>
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
@@ -10359,8 +10294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10373,12 +10308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
@@ -10460,15 +10395,15 @@
       <c r="D7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="22"/>
@@ -10481,6 +10416,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A4EBF-E2BE-433B-AC0E-BFF8899AAB90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B7510-F47A-4C77-A80B-1DF2437E639D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概論" sheetId="1" r:id="rId1"/>
@@ -1070,23 +1070,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,22 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,6 +1168,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9893,227 +9893,233 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="32" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="35" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="B15:C20"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="D11:I12"/>
     <mergeCell ref="B2:I4"/>
@@ -10123,12 +10129,6 @@
     <mergeCell ref="D7:I8"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:I10"/>
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="D19:I20"/>
-    <mergeCell ref="B15:C20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10169,10 +10169,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
@@ -10217,20 +10217,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="48"/>
+      <c r="E2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -10244,7 +10244,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="50"/>
       <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
@@ -10256,7 +10256,7 @@
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="51"/>
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
@@ -10294,8 +10294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2322764F-9471-4EA8-A300-1142997ED685}">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10308,12 +10308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
@@ -10386,28 +10386,28 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\Documents\GitHub\GGJ2019-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B7510-F47A-4C77-A80B-1DF2437E639D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0201AA8F-DF7D-4303-ABE7-2B7E876833F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="20850" windowHeight="8280" activeTab="4" xr2:uid="{F0CF7C49-0A1B-4B2C-BF52-1B362F4A17C3}"/>
   </bookViews>
@@ -1009,7 +1009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,6 +1069,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1169,22 +1181,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9893,224 +9896,224 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="31" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="34" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10169,10 +10172,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="2:3" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
@@ -10217,20 +10220,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="E2" s="52" t="s">
+      <c r="C2" s="52"/>
+      <c r="E2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -10244,7 +10247,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="54"/>
       <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
@@ -10256,7 +10259,7 @@
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="55"/>
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
@@ -10295,7 +10298,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="153.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10308,12 +10311,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
@@ -10386,28 +10389,28 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
